--- a/5sem/51/tables/d.xlsx
+++ b/5sem/51/tables/d.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,7 +411,7 @@
         <v>19.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
         <v>237645</v>
@@ -440,7 +440,7 @@
         <v>39.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="1">
         <v>231631</v>
@@ -469,7 +469,7 @@
         <v>59.5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="1">
         <v>227327</v>
@@ -498,7 +498,7 @@
         <v>79.5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
         <v>222510</v>
@@ -527,7 +527,7 @@
         <v>98.5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="1">
         <v>219907</v>
@@ -556,7 +556,7 @@
         <v>118.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="D7" s="1">
         <v>215922</v>
